--- a/StatisticsResult/statistics_2025.xlsx
+++ b/StatisticsResult/statistics_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\RBADotNetCommunity\Анализ рынка .NET разработки в России\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\RBADotNetCommunity\Анализ рынка .NET разработки в России\DotNetParsers\StatisticsResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1089C5D8-E25E-4A28-8F0A-D1D2DFCAD819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4632D9B-783D-4F60-8E8C-671B803284B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{AFF08135-8005-4635-87D3-EB95B4779B77}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="351">
   <si>
     <t>SolarLab</t>
   </si>
@@ -10436,16 +10436,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35B0BC-8A8B-4AE7-BA38-CE0F557BFC1B}">
-  <dimension ref="B2:G29"/>
+  <dimension ref="B2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="64" customWidth="1"/>
     <col min="3" max="7" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10678,7 +10679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>163</v>
       </c>
@@ -10692,7 +10693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>164</v>
       </c>
@@ -10706,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
         <v>165</v>
       </c>
@@ -10720,7 +10721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
         <v>166</v>
       </c>
@@ -10734,7 +10735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
         <v>167</v>
       </c>
@@ -10748,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
         <v>168</v>
       </c>
@@ -10762,7 +10763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>169</v>
       </c>
@@ -10776,7 +10777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>170</v>
       </c>
@@ -10790,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>0</v>
       </c>
@@ -10804,7 +10805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>1</v>
       </c>
@@ -10818,7 +10819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>8</v>
       </c>
@@ -10832,7 +10833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
         <v>10</v>
       </c>
@@ -10846,7 +10847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
         <v>5</v>
       </c>
@@ -10860,7 +10861,210 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J33" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J37" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J38" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J40" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="J41" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J42" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J43" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J44" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J45" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J46" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J47" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J48" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J49" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J50" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J51" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J52" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" s="20">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I32:J55">
+    <sortCondition descending="1" ref="J31:J55"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>